--- a/biology/Zoologie/Austrotengella_toddae/Austrotengella_toddae.xlsx
+++ b/biology/Zoologie/Austrotengella_toddae/Austrotengella_toddae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Austrotengella toddae est une espèce d'araignées aranéomorphes de la famille des Zoropsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrotengella toddae est une espèce d'araignées aranéomorphes de la famille des Zoropsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le Nord-Est de la Nouvelle-Galles du Sud et dans le Sud-Est du Queensland.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le Nord-Est de la Nouvelle-Galles du Sud et dans le Sud-Est du Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 3,41 mm de long sur 2,72 mm et l'abdomen 2,72 mm de long sur 1,36 mm. La carapace de la femelle paratype mesure 4,56 mm de long sur 3,69 mm et l'abdomen 5,00 mm de long sur 3,13 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 3,41 mm de long sur 2,72 mm et l'abdomen 2,72 mm de long sur 1,36 mm. La carapace de la femelle paratype mesure 4,56 mm de long sur 3,69 mm et l'abdomen 5,00 mm de long sur 3,13 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Valerie Todd[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Valerie Todd.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 2012 : Revisions of Australian ground-hunting spiders. V. A new lycosoid genus from eastern Australia (Araneae: Tengellidae). Zootaxa, no 3305, p. 28-52.</t>
         </is>
